--- a/prep/FIS/fis_reef_stock.xlsx
+++ b/prep/FIS/fis_reef_stock.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="2220" windowWidth="27795" windowHeight="11820"/>
+    <workbookView xWindow="11310" yWindow="2250" windowWidth="27795" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>rgn_id</t>
   </si>
@@ -36,9 +36,6 @@
     <t>SPR30 (SPR/.30)</t>
   </si>
   <si>
-    <t>MHI</t>
-  </si>
-  <si>
     <t>Acanthurus blochii</t>
   </si>
   <si>
@@ -118,6 +115,78 @@
   </si>
   <si>
     <t>Naso brevirostris</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>Kumu</t>
+  </si>
+  <si>
+    <t>Roi</t>
+  </si>
+  <si>
+    <t>Kala</t>
+  </si>
+  <si>
+    <t>Opelu kala</t>
+  </si>
+  <si>
+    <t>Moana kale</t>
+  </si>
+  <si>
+    <t>Uku</t>
+  </si>
+  <si>
+    <t>Palani</t>
+  </si>
+  <si>
+    <t>Pualu</t>
+  </si>
+  <si>
+    <t>Umaumalei</t>
+  </si>
+  <si>
+    <t>Omilu</t>
+  </si>
+  <si>
+    <t>Papa ulua</t>
+  </si>
+  <si>
+    <t>White ulua</t>
+  </si>
+  <si>
+    <t>Mu</t>
+  </si>
+  <si>
+    <t>Taape</t>
+  </si>
+  <si>
+    <t>Toau</t>
+  </si>
+  <si>
+    <t>Weke ula</t>
+  </si>
+  <si>
+    <t>Weke a'a</t>
+  </si>
+  <si>
+    <t>Weke nono</t>
+  </si>
+  <si>
+    <t>Munu</t>
+  </si>
+  <si>
+    <t>Panuhunuhu</t>
+  </si>
+  <si>
+    <t>Panunu</t>
+  </si>
+  <si>
+    <t>Uhu parrot-misc.</t>
+  </si>
+  <si>
+    <t>Menpachi</t>
   </si>
 </sst>
 </file>
@@ -470,441 +539,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="G2" s="3">
+        <f>F2/0.3</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="F2" s="3">
-        <f>E2/0.3</f>
+      <c r="E3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G28" si="0">F3/0.3</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666673</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3666666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93333333333333346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0666666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6333333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3666666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8333333333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.36</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F28" si="0">E3/0.3</f>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3666666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="2">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>0.46666666666666673</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
+      <c r="F25" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3666666666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.93333333333333346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="F26" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>2.666666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2666666666666668</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="2">
         <v>0.4</v>
       </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3333333333333335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.62</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>2.0666666666666669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.49</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6333333333333333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3666666666666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>1.8333333333333335</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.54</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>1.8000000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>0.76666666666666672</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3666666666666667</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" si="0"/>
-        <v>2.666666666666667</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="0"/>
-        <v>1.2666666666666668</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>0.59</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <f t="shared" si="0"/>
         <v>1.9666666666666666</v>
       </c>

--- a/prep/FIS/fis_reef_stock.xlsx
+++ b/prep/FIS/fis_reef_stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11310" yWindow="2250" windowWidth="27795" windowHeight="11820"/>
+    <workbookView xWindow="14550" yWindow="975" windowWidth="27795" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -539,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R1:V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,7 +845,7 @@
         <v>1.8333333333333335</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -862,7 +863,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>52</v>
       </c>
@@ -880,7 +881,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -898,7 +899,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>53</v>
       </c>
@@ -916,7 +917,7 @@
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>55</v>
       </c>
@@ -933,8 +934,9 @@
         <f t="shared" si="0"/>
         <v>1.8000000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>54</v>
       </c>
@@ -951,8 +953,9 @@
         <f t="shared" si="0"/>
         <v>0.76666666666666672</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -970,7 +973,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>55</v>
       </c>
@@ -988,7 +991,7 @@
         <v>1.3666666666666667</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>55</v>
       </c>
@@ -1006,7 +1009,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>2.666666666666667</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>46</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>1.2666666666666668</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>56</v>
       </c>

--- a/prep/FIS/fis_reef_stock.xlsx
+++ b/prep/FIS/fis_reef_stock.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -540,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R1:V11"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +844,7 @@
         <v>1.8333333333333335</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -863,7 +862,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>52</v>
       </c>
@@ -881,7 +880,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -899,7 +898,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>53</v>
       </c>
@@ -917,7 +916,7 @@
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>55</v>
       </c>
@@ -935,8 +934,9 @@
         <v>1.8000000000000003</v>
       </c>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>54</v>
       </c>
@@ -954,8 +954,9 @@
         <v>0.76666666666666672</v>
       </c>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -973,7 +974,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>55</v>
       </c>
@@ -991,7 +992,7 @@
         <v>1.3666666666666667</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>55</v>
       </c>
@@ -1009,7 +1010,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>2.666666666666667</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>46</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>1.2666666666666668</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>56</v>
       </c>
@@ -1062,6 +1063,28 @@
         <f t="shared" si="0"/>
         <v>1.9666666666666666</v>
       </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prep/FIS/fis_reef_stock.xlsx
+++ b/prep/FIS/fis_reef_stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14550" yWindow="975" windowWidth="27795" windowHeight="11820"/>
+    <workbookView xWindow="4560" yWindow="855" windowWidth="27795" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>rgn_id</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Menpachi</t>
+  </si>
+  <si>
+    <t>spr .40</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +554,7 @@
     <col min="3" max="3" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,8 +576,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>41</v>
       </c>
@@ -591,8 +597,12 @@
         <f>F2/0.3</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>F2/0.4</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>40</v>
       </c>
@@ -609,8 +619,12 @@
         <f t="shared" ref="G3:G28" si="0">F3/0.3</f>
         <v>1.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" ref="H3:H28" si="1">F3/0.4</f>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -627,8 +641,12 @@
         <f t="shared" si="0"/>
         <v>0.46666666666666673</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0.35000000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -645,8 +663,12 @@
         <f t="shared" si="0"/>
         <v>0.43333333333333335</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>42</v>
       </c>
@@ -663,8 +685,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -681,8 +707,12 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -699,8 +729,12 @@
         <f t="shared" si="0"/>
         <v>1.3666666666666667</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -717,8 +751,12 @@
         <f t="shared" si="0"/>
         <v>0.93333333333333346</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>43</v>
       </c>
@@ -735,8 +773,12 @@
         <f t="shared" si="0"/>
         <v>1.3333333333333335</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>39</v>
       </c>
@@ -753,8 +795,12 @@
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>48</v>
       </c>
@@ -771,8 +817,12 @@
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>47</v>
       </c>
@@ -789,8 +839,12 @@
         <f t="shared" si="0"/>
         <v>2.0666666666666669</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>1.5499999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>50</v>
       </c>
@@ -807,8 +861,12 @@
         <f t="shared" si="0"/>
         <v>1.6333333333333333</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>1.2249999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>51</v>
       </c>
@@ -825,8 +883,12 @@
         <f t="shared" si="0"/>
         <v>1.3666666666666667</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>49</v>
       </c>
@@ -842,6 +904,10 @@
       <c r="G16" s="3">
         <f t="shared" si="0"/>
         <v>1.8333333333333335</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>1.375</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -861,6 +927,10 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -879,6 +949,10 @@
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>1.4249999999999998</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -897,6 +971,10 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0.37499999999999994</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -915,6 +993,10 @@
         <f t="shared" si="0"/>
         <v>0.43333333333333335</v>
       </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0.32500000000000001</v>
+      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -933,7 +1015,10 @@
         <f t="shared" si="0"/>
         <v>1.8000000000000003</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>1.35</v>
+      </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -953,7 +1038,10 @@
         <f t="shared" si="0"/>
         <v>0.76666666666666672</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0.57499999999999996</v>
+      </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -973,6 +1061,10 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>1.125</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -991,6 +1083,10 @@
         <f t="shared" si="0"/>
         <v>1.3666666666666667</v>
       </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1.0249999999999999</v>
+      </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -1009,6 +1105,10 @@
         <f t="shared" si="0"/>
         <v>0.8666666666666667</v>
       </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -1027,6 +1127,10 @@
         <f t="shared" si="0"/>
         <v>2.666666666666667</v>
       </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -1045,6 +1149,10 @@
         <f t="shared" si="0"/>
         <v>1.2666666666666668</v>
       </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
@@ -1062,6 +1170,10 @@
       <c r="G28" s="3">
         <f t="shared" si="0"/>
         <v>1.9666666666666666</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>1.4749999999999999</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
